--- a/cfs_6_0.4.xlsx
+++ b/cfs_6_0.4.xlsx
@@ -530,10 +530,10 @@
         <v>0.804</v>
       </c>
       <c r="H2" t="n">
-        <v>0.31</v>
+        <v>0.407</v>
       </c>
       <c r="I2" t="n">
-        <v>0.485</v>
+        <v>0.639</v>
       </c>
       <c r="J2" t="n">
         <v>0.501</v>
@@ -582,7 +582,7 @@
         <v>0.5610000000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>0.266</v>
+        <v>0.368</v>
       </c>
       <c r="K3" t="n">
         <v>0.44</v>
@@ -619,7 +619,7 @@
         <v>0.58</v>
       </c>
       <c r="G4" t="n">
-        <v>0.636</v>
+        <v>0.734</v>
       </c>
       <c r="H4" t="n">
         <v>0.394</v>
@@ -665,7 +665,7 @@
         <v>0.627</v>
       </c>
       <c r="G5" t="n">
-        <v>0.728</v>
+        <v>0.789</v>
       </c>
       <c r="H5" t="n">
         <v>0.352</v>
@@ -711,7 +711,7 @@
         <v>0.5679999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>0.645</v>
+        <v>0.723</v>
       </c>
       <c r="H6" t="n">
         <v>0.404</v>
@@ -723,7 +723,7 @@
         <v>0.446</v>
       </c>
       <c r="K6" t="n">
-        <v>0.456</v>
+        <v>0.496</v>
       </c>
       <c r="L6" t="n">
         <v>0.475</v>
@@ -760,7 +760,7 @@
         <v>0.674</v>
       </c>
       <c r="H7" t="n">
-        <v>0.365</v>
+        <v>0.4</v>
       </c>
       <c r="I7" t="n">
         <v>0.554</v>
@@ -803,7 +803,7 @@
         <v>0.533</v>
       </c>
       <c r="G8" t="n">
-        <v>0.649</v>
+        <v>0.707</v>
       </c>
       <c r="H8" t="n">
         <v>0.404</v>
@@ -837,7 +837,7 @@
         <v>0.631</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.663</v>
       </c>
       <c r="D9" t="n">
         <v>0.513</v>
@@ -864,7 +864,7 @@
         <v>0.477</v>
       </c>
       <c r="L9" t="n">
-        <v>0.481</v>
+        <v>0.446</v>
       </c>
       <c r="M9" t="n">
         <v>3.551020408163265</v>
@@ -898,7 +898,7 @@
         <v>0.73</v>
       </c>
       <c r="H10" t="n">
-        <v>0.32</v>
+        <v>0.367</v>
       </c>
       <c r="I10" t="n">
         <v>0.544</v>
@@ -935,7 +935,7 @@
         <v>0.466</v>
       </c>
       <c r="E11" t="n">
-        <v>0.633</v>
+        <v>0.601</v>
       </c>
       <c r="F11" t="n">
         <v>0.576</v>
@@ -1048,7 +1048,7 @@
         <v>0.458</v>
       </c>
       <c r="L13" t="n">
-        <v>0.509</v>
+        <v>0.447</v>
       </c>
       <c r="M13" t="n">
         <v>3.8125</v>
@@ -1073,13 +1073,13 @@
         <v>0.443</v>
       </c>
       <c r="E14" t="n">
-        <v>0.584</v>
+        <v>0.578</v>
       </c>
       <c r="F14" t="n">
         <v>0.556</v>
       </c>
       <c r="G14" t="n">
-        <v>0.676</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="H14" t="n">
         <v>0.374</v>
@@ -1131,7 +1131,7 @@
         <v>0.343</v>
       </c>
       <c r="I15" t="n">
-        <v>0.544</v>
+        <v>0.547</v>
       </c>
       <c r="J15" t="n">
         <v>0.33</v>
@@ -1140,7 +1140,7 @@
         <v>0.467</v>
       </c>
       <c r="L15" t="n">
-        <v>0.438</v>
+        <v>0.424</v>
       </c>
       <c r="M15" t="n">
         <v>5.162790697674419</v>
@@ -1171,7 +1171,7 @@
         <v>0.598</v>
       </c>
       <c r="G16" t="n">
-        <v>0.636</v>
+        <v>0.742</v>
       </c>
       <c r="H16" t="n">
         <v>0.35</v>
@@ -1232,7 +1232,7 @@
         <v>0.441</v>
       </c>
       <c r="L17" t="n">
-        <v>0.48</v>
+        <v>0.428</v>
       </c>
       <c r="M17" t="n">
         <v>5.810344827586207</v>
@@ -1248,7 +1248,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.641</v>
+        <v>0.605</v>
       </c>
       <c r="C18" t="n">
         <v>0.694</v>
@@ -1392,7 +1392,7 @@
         <v>0.724</v>
       </c>
       <c r="D21" t="n">
-        <v>0.497</v>
+        <v>0.495</v>
       </c>
       <c r="E21" t="n">
         <v>0.633</v>
@@ -1401,7 +1401,7 @@
         <v>0.654</v>
       </c>
       <c r="G21" t="n">
-        <v>0.728</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="H21" t="n">
         <v>0.329</v>
@@ -1478,7 +1478,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.676</v>
+        <v>0.638</v>
       </c>
       <c r="C23" t="n">
         <v>0.671</v>
@@ -1505,7 +1505,7 @@
         <v>0.383</v>
       </c>
       <c r="K23" t="n">
-        <v>0.517</v>
+        <v>0.454</v>
       </c>
       <c r="L23" t="n">
         <v>0.446</v>
@@ -1818,7 +1818,7 @@
         <v>0.633</v>
       </c>
       <c r="H30" t="n">
-        <v>0.376</v>
+        <v>0.391</v>
       </c>
       <c r="I30" t="n">
         <v>0.576</v>
@@ -1864,7 +1864,7 @@
         <v>0.633</v>
       </c>
       <c r="H31" t="n">
-        <v>0.376</v>
+        <v>0.47</v>
       </c>
       <c r="I31" t="n">
         <v>0.534</v>
@@ -1901,7 +1901,7 @@
         <v>0.426</v>
       </c>
       <c r="E32" t="n">
-        <v>0.597</v>
+        <v>0.524</v>
       </c>
       <c r="F32" t="n">
         <v>0.511</v>
@@ -1913,7 +1913,7 @@
         <v>0.463</v>
       </c>
       <c r="I32" t="n">
-        <v>0.583</v>
+        <v>0.574</v>
       </c>
       <c r="J32" t="n">
         <v>0.523</v>
@@ -2425,7 +2425,7 @@
         <v>0.361</v>
       </c>
       <c r="K43" t="n">
-        <v>0.47</v>
+        <v>0.359</v>
       </c>
       <c r="L43" t="n">
         <v>0.438</v>
@@ -2447,7 +2447,7 @@
         <v>0.614</v>
       </c>
       <c r="C44" t="n">
-        <v>0.654</v>
+        <v>0.633</v>
       </c>
       <c r="D44" t="n">
         <v>0.467</v>
@@ -2465,7 +2465,7 @@
         <v>0.367</v>
       </c>
       <c r="I44" t="n">
-        <v>0.538</v>
+        <v>0.547</v>
       </c>
       <c r="J44" t="n">
         <v>0.339</v>
@@ -2551,7 +2551,7 @@
         <v>0.49</v>
       </c>
       <c r="G46" t="n">
-        <v>0.611</v>
+        <v>0.638</v>
       </c>
       <c r="H46" t="n">
         <v>0.395</v>
@@ -2643,7 +2643,7 @@
         <v>0.525</v>
       </c>
       <c r="G48" t="n">
-        <v>0.638</v>
+        <v>0.645</v>
       </c>
       <c r="H48" t="n">
         <v>0.372</v>
@@ -2655,7 +2655,7 @@
         <v>0.368</v>
       </c>
       <c r="K48" t="n">
-        <v>0.483</v>
+        <v>0.456</v>
       </c>
       <c r="L48" t="n">
         <v>0.439</v>
@@ -2677,7 +2677,7 @@
         <v>0.6879999999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.695</v>
+        <v>0.588</v>
       </c>
       <c r="D49" t="n">
         <v>0.412</v>
@@ -3005,7 +3005,7 @@
         <v>0.452</v>
       </c>
       <c r="E56" t="n">
-        <v>0.619</v>
+        <v>0.547</v>
       </c>
       <c r="F56" t="n">
         <v>0.524</v>
@@ -3103,7 +3103,7 @@
         <v>0.594</v>
       </c>
       <c r="G58" t="n">
-        <v>0.708</v>
+        <v>0.735</v>
       </c>
       <c r="H58" t="n">
         <v>0.37</v>
@@ -3189,7 +3189,7 @@
         <v>0.494</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.545</v>
       </c>
       <c r="F60" t="n">
         <v>0.5669999999999999</v>
@@ -3250,7 +3250,7 @@
         <v>0.577</v>
       </c>
       <c r="J61" t="n">
-        <v>0.265</v>
+        <v>0.341</v>
       </c>
       <c r="K61" t="n">
         <v>0.398</v>
@@ -3287,7 +3287,7 @@
         <v>0.484</v>
       </c>
       <c r="G62" t="n">
-        <v>0.512</v>
+        <v>0.615</v>
       </c>
       <c r="H62" t="n">
         <v>0.364</v>
@@ -3413,13 +3413,13 @@
         <v>0.572</v>
       </c>
       <c r="C65" t="n">
-        <v>0.731</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="D65" t="n">
         <v>0.49</v>
       </c>
       <c r="E65" t="n">
-        <v>0.642</v>
+        <v>0.603</v>
       </c>
       <c r="F65" t="n">
         <v>0.592</v>
@@ -3566,10 +3566,10 @@
         <v>0.602</v>
       </c>
       <c r="H68" t="n">
-        <v>0.362</v>
+        <v>0.424</v>
       </c>
       <c r="I68" t="n">
-        <v>0.518</v>
+        <v>0.591</v>
       </c>
       <c r="J68" t="n">
         <v>0.325</v>
@@ -3609,7 +3609,7 @@
         <v>0.518</v>
       </c>
       <c r="G69" t="n">
-        <v>0.616</v>
+        <v>0.645</v>
       </c>
       <c r="H69" t="n">
         <v>0.371</v>
@@ -3621,7 +3621,7 @@
         <v>0.343</v>
       </c>
       <c r="K69" t="n">
-        <v>0.485</v>
+        <v>0.456</v>
       </c>
       <c r="L69" t="n">
         <v>0.432</v>
@@ -3713,7 +3713,7 @@
         <v>0.278</v>
       </c>
       <c r="K71" t="n">
-        <v>0.383</v>
+        <v>0.336</v>
       </c>
       <c r="L71" t="n">
         <v>0.407</v>
@@ -3787,7 +3787,7 @@
         <v>0.436</v>
       </c>
       <c r="E73" t="n">
-        <v>0.552</v>
+        <v>0.511</v>
       </c>
       <c r="F73" t="n">
         <v>0.546</v>
@@ -3922,7 +3922,7 @@
         <v>0.626</v>
       </c>
       <c r="D76" t="n">
-        <v>0.44</v>
+        <v>0.461</v>
       </c>
       <c r="E76" t="n">
         <v>0.5629999999999999</v>
@@ -3977,7 +3977,7 @@
         <v>0.533</v>
       </c>
       <c r="G77" t="n">
-        <v>0.669</v>
+        <v>0.712</v>
       </c>
       <c r="H77" t="n">
         <v>0.343</v>
@@ -4066,7 +4066,7 @@
         <v>0.541</v>
       </c>
       <c r="F79" t="n">
-        <v>0.522</v>
+        <v>0.509</v>
       </c>
       <c r="G79" t="n">
         <v>0.604</v>
@@ -4084,7 +4084,7 @@
         <v>0.448</v>
       </c>
       <c r="L79" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="M79" t="n">
         <v>0.71875</v>
@@ -4121,7 +4121,7 @@
         <v>0.343</v>
       </c>
       <c r="I80" t="n">
-        <v>0.514</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="J80" t="n">
         <v>0.293</v>
@@ -4161,13 +4161,13 @@
         <v>0.466</v>
       </c>
       <c r="G81" t="n">
-        <v>0.52</v>
+        <v>0.616</v>
       </c>
       <c r="H81" t="n">
         <v>0.361</v>
       </c>
       <c r="I81" t="n">
-        <v>0.503</v>
+        <v>0.537</v>
       </c>
       <c r="J81" t="n">
         <v>0.288</v>
@@ -4207,7 +4207,7 @@
         <v>0.62</v>
       </c>
       <c r="G82" t="n">
-        <v>0.642</v>
+        <v>0.772</v>
       </c>
       <c r="H82" t="n">
         <v>0.34</v>
@@ -4308,7 +4308,7 @@
         <v>0.544</v>
       </c>
       <c r="J84" t="n">
-        <v>0.265</v>
+        <v>0.412</v>
       </c>
       <c r="K84" t="n">
         <v>0.376</v>
@@ -4397,7 +4397,7 @@
         <v>0.314</v>
       </c>
       <c r="I86" t="n">
-        <v>0.502</v>
+        <v>0.547</v>
       </c>
       <c r="J86" t="n">
         <v>0.243</v>
@@ -4449,10 +4449,10 @@
         <v>0.323</v>
       </c>
       <c r="K87" t="n">
-        <v>0.459</v>
+        <v>0.337</v>
       </c>
       <c r="L87" t="n">
-        <v>0.422</v>
+        <v>0.387</v>
       </c>
       <c r="M87" t="n">
         <v>0.5600000000000001</v>
@@ -4483,7 +4483,7 @@
         <v>0.573</v>
       </c>
       <c r="G88" t="n">
-        <v>0.632</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="H88" t="n">
         <v>0.341</v>
@@ -4535,7 +4535,7 @@
         <v>0.373</v>
       </c>
       <c r="I89" t="n">
-        <v>0.482</v>
+        <v>0.609</v>
       </c>
       <c r="J89" t="n">
         <v>0.279</v>
@@ -4563,7 +4563,7 @@
         <v>0.626</v>
       </c>
       <c r="C90" t="n">
-        <v>0.611</v>
+        <v>0.591</v>
       </c>
       <c r="D90" t="n">
         <v>0.422</v>
@@ -4587,7 +4587,7 @@
         <v>0.319</v>
       </c>
       <c r="K90" t="n">
-        <v>0.468</v>
+        <v>0.381</v>
       </c>
       <c r="L90" t="n">
         <v>0.423</v>
@@ -4609,13 +4609,13 @@
         <v>0.669</v>
       </c>
       <c r="C91" t="n">
-        <v>0.6</v>
+        <v>0.571</v>
       </c>
       <c r="D91" t="n">
         <v>0.443</v>
       </c>
       <c r="E91" t="n">
-        <v>0.548</v>
+        <v>0.515</v>
       </c>
       <c r="F91" t="n">
         <v>0.54</v>
@@ -4722,7 +4722,7 @@
         <v>0.524</v>
       </c>
       <c r="J93" t="n">
-        <v>0.363</v>
+        <v>0.474</v>
       </c>
       <c r="K93" t="n">
         <v>0.5</v>
@@ -4805,7 +4805,7 @@
         <v>0.535</v>
       </c>
       <c r="G95" t="n">
-        <v>0.622</v>
+        <v>0.671</v>
       </c>
       <c r="H95" t="n">
         <v>0.342</v>
@@ -4885,7 +4885,7 @@
         <v>0.579</v>
       </c>
       <c r="C97" t="n">
-        <v>0.645</v>
+        <v>0.641</v>
       </c>
       <c r="D97" t="n">
         <v>0.375</v>
@@ -4897,7 +4897,7 @@
         <v>0.581</v>
       </c>
       <c r="G97" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.647</v>
       </c>
       <c r="H97" t="n">
         <v>0.315</v>
@@ -4946,7 +4946,7 @@
         <v>0.608</v>
       </c>
       <c r="H98" t="n">
-        <v>0.362</v>
+        <v>0.395</v>
       </c>
       <c r="I98" t="n">
         <v>0.523</v>
@@ -4980,7 +4980,7 @@
         <v>0.618</v>
       </c>
       <c r="D99" t="n">
-        <v>0.451</v>
+        <v>0.483</v>
       </c>
       <c r="E99" t="n">
         <v>0.5570000000000001</v>
@@ -5007,7 +5007,7 @@
         <v>0.414</v>
       </c>
       <c r="M99" t="n">
-        <v>2.441176470588236</v>
+        <v>5.2</v>
       </c>
       <c r="N99" t="n">
         <v>2.794117647058823</v>
@@ -5035,7 +5035,7 @@
         <v>0.438</v>
       </c>
       <c r="G100" t="n">
-        <v>0.61</v>
+        <v>0.671</v>
       </c>
       <c r="H100" t="n">
         <v>0.359</v>
